--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>482918.5584155134</v>
+        <v>506850.5914291598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573252.270349381</v>
+        <v>5573252.270349382</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W6" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>61.78373119736594</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V11" t="n">
         <v>241.0142888776591</v>
@@ -1433,7 +1433,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>141.3960895962228</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="16">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>52.74848097608486</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,13 +1971,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>126.2480181108248</v>
+        <v>137.7890700245945</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,64 +2236,64 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>119.629126131246</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>82.69355372315663</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2552,26 +2552,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>218.240199817897</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2752,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,67 +2789,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>130.8214584712332</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>99.62842292668093</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.809496073036132</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3047,7 +3047,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>152.7144052225942</v>
       </c>
       <c r="C33" t="n">
-        <v>61.01828001633563</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3263,20 +3263,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>149.7575646117849</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,68 +3500,68 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E38" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>105.6152911330825</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>108.2953254812187</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>46.03546545923035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.259667770205</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C44" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>53.8785034707274</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>161.5654296360975</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,16 +4416,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4443,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4504,16 +4504,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>926.4957180431458</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4744,16 +4744,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4844,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>220.4197778178658</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>220.4197778178658</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>81.68895240048136</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4893,40 +4893,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5063,22 +5063,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T11" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U11" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T11" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W11" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
         <v>19.28114311021272</v>
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>501.9060370580465</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C12" t="n">
-        <v>327.4530077769195</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,43 +5127,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X12" t="n">
-        <v>877.8816728430684</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y12" t="n">
-        <v>670.1213740781145</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
         <v>19.28114311021272</v>
@@ -5242,7 +5242,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5364,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>821.2328225851586</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>821.2328225851586</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D17" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>73.31656967823568</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5695,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W20" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X20" t="n">
-        <v>962.2293816994886</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y20" t="n">
-        <v>962.2293816994886</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.8043937272075</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>354.5646924921614</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>146.8043937272075</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="22">
@@ -5941,19 +5941,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,16 +6245,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
         <v>749.627473042513</v>
@@ -6263,10 +6263,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
         <v>506.1786963984129</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>570.195164680601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>570.195164680601</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>570.195164680601</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>570.195164680601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,16 +6400,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>482.1535401227612</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C30" t="n">
-        <v>307.7005108416342</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>158.7661011803829</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>863.4223848776252</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>690.0050403282941</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>690.0050403282941</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>690.0050403282941</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>690.0050403282941</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>690.0050403282941</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X30" t="n">
-        <v>482.1535401227612</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y30" t="n">
-        <v>482.1535401227612</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>171.2153985321831</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C33" t="n">
-        <v>109.5807722530562</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>547.1910343172051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>547.1910343172051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>339.4307355522512</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7020,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7123,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.067986854209</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C38" t="n">
-        <v>467.067986854209</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7172,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.3994074699755</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C39" t="n">
-        <v>306.9463781888485</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>857.3750432549973</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>857.3750432549973</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>649.6147444900434</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="40">
@@ -7357,13 +7357,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>862.8876260635219</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C42" t="n">
-        <v>816.3871559026832</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D42" t="n">
-        <v>667.4527462414319</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E42" t="n">
-        <v>508.2152912359765</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>718.1808909421027</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>718.1808909421027</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="Y42" t="n">
-        <v>862.8876260635219</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>380.2300195200815</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C45" t="n">
-        <v>380.2300195200815</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D45" t="n">
-        <v>380.2300195200815</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E45" t="n">
-        <v>220.992564514626</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F45" t="n">
-        <v>74.45800654151097</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G45" t="n">
-        <v>74.45800654151097</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>74.45800654151097</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7731,46 +7731,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>699.6902223906961</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>699.6902223906961</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>699.6902223906961</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="X45" t="n">
-        <v>756.2056553051034</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="Y45" t="n">
-        <v>548.4453565401495</v>
+        <v>464.5381141589534</v>
       </c>
     </row>
     <row r="46">
@@ -7828,10 +7828,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,7 +8310,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,10 +10437,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10668,16 +10668,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11388,13 +11388,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>218.5474650704376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22863,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22920,10 +22920,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W6" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -22993,10 +22993,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,22 +23100,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>50.45171303913052</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23230,7 +23230,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>205.9115976555972</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23239,7 +23239,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23303,16 +23303,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V11" t="n">
         <v>86.73796959247585</v>
@@ -23321,7 +23321,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23577,16 +23577,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>110.2988935646968</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23674,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>186.9102513033835</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23774,16 +23774,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>299.3870928771938</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,10 +23826,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.4869632604116</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23859,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>259.1400950999471</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,13 +24014,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>46.46048087749095</v>
+        <v>34.91942896372126</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24096,19 +24096,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>303.9392423202299</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>25.4400862621379</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,10 +24336,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>143.2478283578182</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24452,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.701182263077783</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24640,19 +24640,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>41.88704051708251</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5294112259622068</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.0665496686753</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24935,7 +24935,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24968,10 +24968,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>13.81877842727314</v>
       </c>
       <c r="C33" t="n">
-        <v>111.6902189719801</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,7 +25014,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25056,7 +25056,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>111.1469913286911</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25114,10 +25114,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>320.3175739611883</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>55.92513116551942</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E38" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>146.0796920278371</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>97.38737029608565</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,16 +25628,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F41" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,28 +25707,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>126.6730335290854</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>28.42350333363279</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C44" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,13 +25956,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>35.51812938068768</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>10.11774146774033</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26068,13 +26068,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310079</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481985.0402310079</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32513.3144088097</v>
+        <v>-29652.91916435758</v>
       </c>
       <c r="C6" t="n">
-        <v>48256.11712273806</v>
+        <v>51116.51236719018</v>
       </c>
       <c r="D6" t="n">
-        <v>48256.117122738</v>
+        <v>51116.51236719018</v>
       </c>
       <c r="E6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="F6" t="n">
-        <v>81883.71712273805</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="G6" t="n">
-        <v>81883.71712273805</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="H6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719022</v>
       </c>
       <c r="I6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="J6" t="n">
-        <v>18823.77452363179</v>
+        <v>21684.16976808393</v>
       </c>
       <c r="K6" t="n">
-        <v>81883.71712273805</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="L6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="M6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="N6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="O6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="P6" t="n">
-        <v>81883.71712273803</v>
+        <v>84744.1123671902</v>
       </c>
     </row>
   </sheetData>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35030,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,10 +37157,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38108,13 +38108,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
